--- a/data/trans_orig/IP07A22_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76368581-D877-4BD7-8618-9A28B3823B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0A1C98-7B51-4202-B8AD-52A5BF205E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0131A6F5-32C5-4414-8FE7-CDBA6F5D79C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{308DEEBE-96A7-4830-AB25-D8AEE6D5799F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 50,1%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,55%</t>
+    <t>14,74%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>40,93%</t>
+    <t>40,35%</t>
   </si>
   <si>
     <t>7,62%</t>
@@ -92,7 +92,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>22,64%</t>
+    <t>23,02%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -101,19 +101,19 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>17,5%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>11,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -122,7 +122,7 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>13,4%</t>
+    <t>13,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -134,7 +134,7 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -146,25 +146,25 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>44,88%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -173,28 +173,28 @@
     <t>68,52%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>66,44%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -206,379 +206,382 @@
     <t>4,6%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>14,23%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
     <t>71,03%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>69,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -993,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F0A85F-18FE-4147-A295-AC075E9D3287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87D7321-14A8-4F82-84D1-F92C2A36FBC5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1509,10 +1512,10 @@
         <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,13 +1530,13 @@
         <v>8899</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1542,13 +1545,13 @@
         <v>6753</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -1557,13 +1560,13 @@
         <v>15652</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1581,13 @@
         <v>66220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -1593,13 +1596,13 @@
         <v>46284</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -1608,13 +1611,13 @@
         <v>112504</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,13 +1632,13 @@
         <v>200307</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -1644,13 +1647,13 @@
         <v>183527</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>467</v>
@@ -1659,13 +1662,13 @@
         <v>383834</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,7 +1724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1736,13 @@
         <v>3012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1748,13 +1751,13 @@
         <v>843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1763,13 +1766,13 @@
         <v>3855</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1787,13 @@
         <v>848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1799,13 +1802,13 @@
         <v>929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1814,13 +1817,13 @@
         <v>1777</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1838,13 @@
         <v>4346</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1850,13 +1853,13 @@
         <v>1435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1865,13 +1868,13 @@
         <v>5782</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1889,13 @@
         <v>10815</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1901,13 +1904,13 @@
         <v>10798</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -1916,13 +1919,13 @@
         <v>21613</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1940,13 @@
         <v>78871</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -1952,13 +1955,13 @@
         <v>69012</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -1967,13 +1970,13 @@
         <v>147883</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,10 +2044,10 @@
         <v>17255</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>141</v>
@@ -2122,13 +2125,13 @@
         <v>14325</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2146,13 @@
         <v>13888</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2158,13 +2161,13 @@
         <v>8188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -2173,13 +2176,13 @@
         <v>22076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2197,13 @@
         <v>83103</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -2209,13 +2212,13 @@
         <v>63177</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -2224,13 +2227,13 @@
         <v>146280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2248,13 @@
         <v>297420</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>357</v>
@@ -2260,13 +2263,13 @@
         <v>270574</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>706</v>
@@ -2275,13 +2278,13 @@
         <v>567994</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A22_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A22_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0A1C98-7B51-4202-B8AD-52A5BF205E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A845BC39-6442-4E82-8B28-D888664DAA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{308DEEBE-96A7-4830-AB25-D8AEE6D5799F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{52579455-EAD7-4F65-BEE9-FA9BC49ACF00}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
-  <si>
-    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="171">
+  <si>
+    <t>Menores según frecuencia de sentirse solo/a en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,517 +71,481 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -996,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87D7321-14A8-4F82-84D1-F92C2A36FBC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E2BC3-57E6-4901-966C-FCD0FBEA12E3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1114,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>700</v>
+        <v>17652</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1129,238 +1093,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>3462</v>
+        <v>18413</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>4162</v>
+        <v>36065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>969</v>
+        <v>10013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>391</v>
+        <v>6551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>1360</v>
+        <v>16564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>642</v>
+        <v>391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>642</v>
+        <v>1254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>6068</v>
+        <v>526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>6095</v>
+        <v>1708</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>12163</v>
+        <v>2234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>18242</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>18036</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>36277</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,306 +1333,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
-        <v>26621</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D10" s="7">
-        <v>13544</v>
+        <v>158249</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>235</v>
+      </c>
+      <c r="I10" s="7">
+        <v>214913</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5743</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>452</v>
+      </c>
+      <c r="N10" s="7">
+        <v>373163</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>19287</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>5250</v>
+        <v>91151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>83</v>
+      </c>
+      <c r="I11" s="7">
+        <v>78008</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5938</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>179</v>
+      </c>
+      <c r="N11" s="7">
+        <v>169159</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11189</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6270</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
-        <v>8899</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>13426</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6753</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>19695</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="7">
-        <v>22</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15652</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>66220</v>
+        <v>4130</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>959</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="7">
-        <v>60</v>
-      </c>
-      <c r="I13" s="7">
-        <v>46284</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5089</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M13" s="7">
-        <v>133</v>
-      </c>
-      <c r="N13" s="7">
-        <v>112504</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>200307</v>
+        <v>804</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1940</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2744</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H14" s="7">
-        <v>241</v>
-      </c>
-      <c r="I14" s="7">
-        <v>183527</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="7">
-        <v>467</v>
-      </c>
-      <c r="N14" s="7">
-        <v>383834</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,186 +1641,186 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>328</v>
+      </c>
+      <c r="D15" s="7">
+        <v>260604</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
-        <v>294220</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>325</v>
-      </c>
       <c r="I15" s="7">
-        <v>248245</v>
+        <v>309246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N15" s="7">
-        <v>542465</v>
+        <v>569851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>3012</v>
+        <v>53327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>75459</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7">
+        <v>162</v>
+      </c>
+      <c r="N16" s="7">
+        <v>128785</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>843</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3855</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>848</v>
+        <v>24535</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22890</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>929</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>66</v>
+      </c>
+      <c r="N17" s="7">
+        <v>47425</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1777</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>4346</v>
+        <v>2148</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3359</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1435</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>117</v>
@@ -1865,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>5782</v>
+        <v>5506</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -1880,103 +1844,103 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>10815</v>
+        <v>772</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10798</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>772</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M19" s="7">
-        <v>30</v>
-      </c>
-      <c r="N19" s="7">
-        <v>21613</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>78871</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>69012</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>147883</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,49 +1949,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7">
-        <v>97893</v>
+        <v>80781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>101707</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>182488</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,253 +2002,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="D22" s="7">
-        <v>17255</v>
+        <v>229228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="I22" s="7">
-        <v>10049</v>
+        <v>308785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>28</v>
+        <v>661</v>
       </c>
       <c r="N22" s="7">
-        <v>27304</v>
+        <v>538013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="D23" s="7">
-        <v>7067</v>
+        <v>125699</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="I23" s="7">
-        <v>7257</v>
+        <v>107448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="N23" s="7">
-        <v>14325</v>
+        <v>233148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>13888</v>
+        <v>8808</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>8188</v>
+        <v>17647</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>22076</v>
+        <v>26455</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>83103</v>
+        <v>5427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>63177</v>
+        <v>2668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>146280</v>
+        <v>8095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>297420</v>
+        <v>804</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>270574</v>
+        <v>1940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>706</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>567994</v>
+        <v>2744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,54 +2257,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D27" s="7">
-        <v>418734</v>
+        <v>369967</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="I27" s="7">
-        <v>359245</v>
+        <v>438488</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="N27" s="7">
-        <v>777979</v>
+        <v>808455</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
